--- a/src/JCSGYK/AdminBundle/Resources/public/reports/catering.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/catering.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>[ca.cim][ca.klub]</t>
   </si>
@@ -50,25 +50,19 @@
     <t>[catering.days;ope=tbs:num]</t>
   </si>
   <si>
-    <t>[catering.weekdays;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>[catering.discount_days;ope=tbs:num]</t>
   </si>
   <si>
-    <t>Étkezési napok munkanap</t>
-  </si>
-  <si>
     <t>Jóváírások száma</t>
   </si>
   <si>
-    <t>[catering.name]</t>
-  </si>
-  <si>
-    <t>[catering.id;block=tbs:row]</t>
-  </si>
-  <si>
-    <t>ÜSZ</t>
+    <t>[catering.name;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>Fizetendő</t>
+  </si>
+  <si>
+    <t>[catering.amount]</t>
   </si>
 </sst>
 </file>
@@ -149,7 +143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,17 +253,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -279,7 +272,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,8 +279,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +338,7 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -397,6 +393,7 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -802,80 +799,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" ht="43" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="43" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>
